--- a/P3GA2/Cronograma Practica PROGRA.xlsx
+++ b/P3GA2/Cronograma Practica PROGRA.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorgi\Documents\ProyectoUMG\P3GA2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA ACTIVIDADES" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="54">
   <si>
     <t>ACTIVIDAD</t>
   </si>
@@ -141,13 +136,58 @@
   </si>
   <si>
     <t>Coordinador(Jorge)</t>
+  </si>
+  <si>
+    <t>Mejorar diseño de login.</t>
+  </si>
+  <si>
+    <t>Fase 2</t>
+  </si>
+  <si>
+    <t>Mostrar registros Alumnos</t>
+  </si>
+  <si>
+    <t>Cajas de texto centradas.</t>
+  </si>
+  <si>
+    <t>Agregar combobox</t>
+  </si>
+  <si>
+    <t>AsignacionCursoMaestro</t>
+  </si>
+  <si>
+    <t>Revision de validaciones generales</t>
+  </si>
+  <si>
+    <t>revisar validaciones cambiar labels por joptionpane</t>
+  </si>
+  <si>
+    <t>Consulta Notas</t>
+  </si>
+  <si>
+    <t>Notas por parciales</t>
+  </si>
+  <si>
+    <t>Mejoras visuales y validaciones</t>
+  </si>
+  <si>
+    <t>Mostrar datos guardados</t>
+  </si>
+  <si>
+    <t>Revision Mantenimientos</t>
+  </si>
+  <si>
+    <t>Fechas</t>
+  </si>
+  <si>
+    <t>Encargado:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,8 +250,49 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,8 +311,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -317,11 +410,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -342,9 +446,6 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -357,21 +458,11 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -428,6 +519,82 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -490,7 +657,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -525,7 +692,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -702,7 +869,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -711,10 +878,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B1:H42"/>
+  <dimension ref="B1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -729,24 +896,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="34" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
     </row>
     <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
@@ -770,7 +937,7 @@
     </row>
     <row r="5" spans="2:7" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="4"/>
@@ -779,162 +946,157 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>43963</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>43964</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29"/>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="30"/>
-      <c r="C11" s="19" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>43902</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <v>43903</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="30"/>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>43902</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="12">
         <v>43903</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="30"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
+    <row r="13" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="25"/>
     </row>
     <row r="14" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="30"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="30"/>
-      <c r="C15" s="22" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="15"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>43963</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>43964</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>43963</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>43964</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <v>1</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -942,20 +1104,20 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B19" s="32"/>
-      <c r="C19" s="19" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>43963</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>43964</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="11">
         <v>1</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -963,20 +1125,20 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B20" s="37"/>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="32"/>
+      <c r="C20" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>43963</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>43964</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="11">
         <v>1</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -984,20 +1146,20 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B21" s="33"/>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>43963</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <v>43964</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="11">
         <v>1</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -1005,20 +1167,20 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>43963</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>43964</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="11">
         <v>1</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -1026,20 +1188,20 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
-      <c r="C23" s="19" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>43963</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="9">
         <v>43964</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="11">
         <v>1</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -1047,20 +1209,20 @@
       </c>
     </row>
     <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="30"/>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="25"/>
+      <c r="C24" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>43963</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="9">
         <v>43964</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="11">
         <v>1</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -1068,20 +1230,20 @@
       </c>
     </row>
     <row r="25" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="31"/>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="26"/>
+      <c r="C25" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>43963</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <v>43964</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="11">
         <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -1089,20 +1251,20 @@
       </c>
     </row>
     <row r="26" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="19" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>43963</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="9">
         <v>43964</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="11">
         <v>1</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -1110,20 +1272,20 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B27" s="32"/>
-      <c r="C27" s="19" t="s">
+      <c r="B27" s="27"/>
+      <c r="C27" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>43963</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="9">
         <v>43964</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="11">
         <v>1</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -1131,130 +1293,513 @@
       </c>
     </row>
     <row r="28" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B28" s="33"/>
-      <c r="C28" s="19" t="s">
+      <c r="B28" s="28"/>
+      <c r="C28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>43964</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="9">
         <v>43964</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="11">
         <v>0.95</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="16"/>
-    </row>
-    <row r="30" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-      <c r="C30" s="26" t="s">
+    <row r="29" spans="2:8" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="B29" s="8"/>
+      <c r="C29" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
+    </row>
+    <row r="30" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B30" s="8"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="59"/>
+      <c r="F30" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="54"/>
+    </row>
+    <row r="31" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B31" s="8"/>
+      <c r="C31" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="57">
+        <v>0</v>
+      </c>
+      <c r="H31" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B32" s="8"/>
+      <c r="C32" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="33">
+        <v>0</v>
+      </c>
+      <c r="H32" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B33" s="8"/>
+      <c r="C33" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B34" s="8"/>
+      <c r="C34" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B35" s="8"/>
+      <c r="C35" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B36" s="8"/>
+      <c r="C36" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B37" s="8"/>
+      <c r="C37" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="33">
+        <v>0</v>
+      </c>
+      <c r="H37" s="41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B38" s="8"/>
+      <c r="C38" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="33">
+        <v>0</v>
+      </c>
+      <c r="H38" s="41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B39" s="8"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="33"/>
+    </row>
+    <row r="40" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B40" s="8"/>
+      <c r="C40" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="39"/>
+    </row>
+    <row r="41" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B41" s="8"/>
+      <c r="C41" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="33">
+        <v>0</v>
+      </c>
+      <c r="H41" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B42" s="8"/>
+      <c r="C42" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="33">
+        <v>0</v>
+      </c>
+      <c r="H42" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B43" s="8"/>
+      <c r="C43" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="33">
+        <v>0</v>
+      </c>
+      <c r="H43" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B44" s="8"/>
+      <c r="C44" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="33">
+        <v>0</v>
+      </c>
+      <c r="H44" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B45" s="8"/>
+      <c r="C45" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="33">
+        <v>0</v>
+      </c>
+      <c r="H45" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B46" s="8"/>
+      <c r="C46" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="33">
+        <v>0</v>
+      </c>
+      <c r="H46" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B47" s="8"/>
+      <c r="C47" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="33">
+        <v>0</v>
+      </c>
+      <c r="H47" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B48" s="8"/>
+      <c r="C48" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="33">
+        <v>0</v>
+      </c>
+      <c r="H48" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B49" s="8"/>
+      <c r="C49" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="33">
+        <v>0</v>
+      </c>
+      <c r="H49" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B50" s="8"/>
+      <c r="C50" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="33">
+        <v>0</v>
+      </c>
+      <c r="H50" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B51" s="8"/>
+      <c r="C51" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" s="33">
+        <v>0</v>
+      </c>
+      <c r="H51" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B52" s="8"/>
+      <c r="C52" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="33">
+        <v>0</v>
+      </c>
+      <c r="H52" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B53" s="8"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="39"/>
+    </row>
+    <row r="54" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B54" s="8"/>
+      <c r="C54" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B55" s="8"/>
+      <c r="C55" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D55" s="12">
         <v>43964</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E55" s="12">
         <v>43965</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-      <c r="C31" s="27" t="s">
+      <c r="F55" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B56" s="8"/>
+      <c r="C56" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D56" s="12">
         <v>43964</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E56" s="12">
         <v>43972</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F56" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B32" s="9"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B34" s="17"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="12"/>
-    </row>
-    <row r="37" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B37" s="9"/>
-    </row>
-    <row r="38" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B38" s="9"/>
-    </row>
-    <row r="39" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B39" s="9"/>
-    </row>
-    <row r="40" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B40" s="9"/>
-    </row>
-    <row r="41" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F41" s="8" t="s">
+      <c r="G56" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B57" s="40"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="49"/>
+    </row>
+    <row r="58" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B58" s="40"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="49"/>
+    </row>
+    <row r="59" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B59" s="50"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="7">
-        <f>AVERAGE(G5:G36)</f>
-        <v>0.93437499999999996</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="G59" s="7">
+        <f>AVERAGE(G5:G56)</f>
+        <v>0.39342105263157895</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B60" s="40"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="49"/>
+    </row>
+    <row r="61" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B61" s="50"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="49"/>
+    </row>
+    <row r="62" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B62" s="40"/>
+    </row>
+    <row r="63" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B63" s="40"/>
+    </row>
+    <row r="64" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B64" s="40"/>
+    </row>
+    <row r="65" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B65" s="40"/>
+    </row>
+    <row r="66" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B27:B28"/>

--- a/P3GA2/Cronograma Practica PROGRA.xlsx
+++ b/P3GA2/Cronograma Practica PROGRA.xlsx
@@ -491,36 +491,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -544,15 +514,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -588,13 +549,52 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -869,7 +869,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -878,10 +878,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B1:H67"/>
+  <dimension ref="B1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -896,24 +896,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
     </row>
     <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="29" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
@@ -988,7 +988,7 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="20" t="s">
         <v>11</v>
       </c>
@@ -998,7 +998,7 @@
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="14" t="s">
         <v>12</v>
       </c>
@@ -1016,7 +1016,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="14" t="s">
         <v>15</v>
       </c>
@@ -1034,10 +1034,10 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="25"/>
+      <c r="B13" s="53"/>
     </row>
     <row r="14" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="25"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="15"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -1045,7 +1045,7 @@
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="25"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="17" t="s">
         <v>8</v>
       </c>
@@ -1055,7 +1055,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="25"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="14" t="s">
         <v>27</v>
       </c>
@@ -1065,7 +1065,7 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="26"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="14" t="s">
         <v>17</v>
       </c>
@@ -1104,7 +1104,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B19" s="27"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="14" t="s">
         <v>18</v>
       </c>
@@ -1125,7 +1125,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B20" s="32"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="14" t="s">
         <v>19</v>
       </c>
@@ -1146,7 +1146,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B21" s="28"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="14" t="s">
         <v>20</v>
       </c>
@@ -1188,7 +1188,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="24"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="14" t="s">
         <v>22</v>
       </c>
@@ -1209,7 +1209,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="25"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="14" t="s">
         <v>23</v>
       </c>
@@ -1230,7 +1230,7 @@
       </c>
     </row>
     <row r="25" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="26"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="14" t="s">
         <v>24</v>
       </c>
@@ -1272,7 +1272,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B27" s="27"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="14" t="s">
         <v>26</v>
       </c>
@@ -1293,7 +1293,7 @@
       </c>
     </row>
     <row r="28" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B28" s="28"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="14" t="s">
         <v>34</v>
       </c>
@@ -1315,487 +1315,495 @@
     </row>
     <row r="29" spans="2:8" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B29" s="8"/>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="44"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="48"/>
     </row>
     <row r="30" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B30" s="8"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="58" t="s">
+      <c r="C30" s="41"/>
+      <c r="D30" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="38" t="s">
+      <c r="E30" s="50"/>
+      <c r="F30" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="54"/>
+      <c r="G30" s="41"/>
     </row>
     <row r="31" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B31" s="8"/>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="56" t="s">
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="57">
-        <v>0</v>
-      </c>
-      <c r="H31" s="39" t="s">
+      <c r="G31" s="44">
+        <v>0</v>
+      </c>
+      <c r="H31" s="29" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B32" s="8"/>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="25" t="s">
         <v>41</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="53" t="s">
+      <c r="F32" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G32" s="33">
-        <v>0</v>
-      </c>
-      <c r="H32" s="39" t="s">
+      <c r="G32" s="23">
+        <v>0</v>
+      </c>
+      <c r="H32" s="29" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B33" s="8"/>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
-      <c r="F33" s="53" t="s">
+      <c r="F33" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="33">
+      <c r="G33" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B34" s="8"/>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
-      <c r="F34" s="53" t="s">
+      <c r="F34" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="33">
+      <c r="G34" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B35" s="8"/>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="27" t="s">
         <v>42</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="33">
+      <c r="F35" s="40"/>
+      <c r="G35" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B36" s="8"/>
-      <c r="C36" s="52" t="s">
-        <v>43</v>
-      </c>
+      <c r="C36" s="27"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="33">
-        <v>0</v>
-      </c>
+      <c r="F36" s="40"/>
+      <c r="G36" s="23"/>
     </row>
     <row r="37" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B37" s="8"/>
-      <c r="C37" s="35" t="s">
-        <v>27</v>
+      <c r="C37" s="39" t="s">
+        <v>43</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
-      <c r="F37" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" s="33">
-        <v>0</v>
-      </c>
-      <c r="H37" s="41" t="s">
-        <v>50</v>
+      <c r="F37" s="40"/>
+      <c r="G37" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B38" s="8"/>
-      <c r="C38" s="35" t="s">
-        <v>44</v>
+      <c r="C38" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
-      <c r="F38" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="33">
-        <v>0</v>
-      </c>
-      <c r="H38" s="41" t="s">
+      <c r="F38" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="23">
+        <v>0</v>
+      </c>
+      <c r="H38" s="31" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B39" s="8"/>
-      <c r="C39" s="35"/>
+      <c r="C39" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="33"/>
+      <c r="F39" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="23">
+        <v>0</v>
+      </c>
+      <c r="H39" s="31" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="40" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
-      <c r="C40" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="39"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="23"/>
     </row>
     <row r="41" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B41" s="8"/>
-      <c r="C41" s="14" t="s">
-        <v>18</v>
+      <c r="C41" s="45" t="s">
+        <v>51</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" s="33">
-        <v>0</v>
-      </c>
-      <c r="H41" s="39" t="s">
-        <v>46</v>
-      </c>
+      <c r="F41" s="40"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="29"/>
     </row>
     <row r="42" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B42" s="8"/>
       <c r="C42" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="53" t="s">
+      <c r="F42" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="G42" s="33">
-        <v>0</v>
-      </c>
-      <c r="H42" s="39" t="s">
+      <c r="G42" s="23">
+        <v>0</v>
+      </c>
+      <c r="H42" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B43" s="8"/>
       <c r="C43" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="53" t="s">
+      <c r="F43" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="33">
-        <v>0</v>
-      </c>
-      <c r="H43" s="39" t="s">
+      <c r="G43" s="23">
+        <v>0</v>
+      </c>
+      <c r="H43" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B44" s="8"/>
       <c r="C44" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" s="33">
-        <v>0</v>
-      </c>
-      <c r="H44" s="39" t="s">
+      <c r="F44" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="23">
+        <v>0</v>
+      </c>
+      <c r="H44" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B45" s="8"/>
       <c r="C45" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
-      <c r="F45" s="53" t="s">
+      <c r="F45" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="G45" s="33">
-        <v>0</v>
-      </c>
-      <c r="H45" s="39" t="s">
+      <c r="G45" s="23">
+        <v>0</v>
+      </c>
+      <c r="H45" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B46" s="8"/>
       <c r="C46" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
-      <c r="F46" s="53" t="s">
+      <c r="F46" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="G46" s="33">
-        <v>0</v>
-      </c>
-      <c r="H46" s="39" t="s">
+      <c r="G46" s="23">
+        <v>0</v>
+      </c>
+      <c r="H46" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B47" s="8"/>
       <c r="C47" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
-      <c r="F47" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" s="33">
-        <v>0</v>
-      </c>
-      <c r="H47" s="39" t="s">
+      <c r="F47" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="23">
+        <v>0</v>
+      </c>
+      <c r="H47" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B48" s="8"/>
       <c r="C48" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
-      <c r="F48" s="53" t="s">
+      <c r="F48" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G48" s="33">
-        <v>0</v>
-      </c>
-      <c r="H48" s="39" t="s">
+      <c r="G48" s="23">
+        <v>0</v>
+      </c>
+      <c r="H48" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B49" s="8"/>
       <c r="C49" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
-      <c r="F49" s="53" t="s">
+      <c r="F49" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G49" s="33">
-        <v>0</v>
-      </c>
-      <c r="H49" s="39" t="s">
+      <c r="G49" s="23">
+        <v>0</v>
+      </c>
+      <c r="H49" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B50" s="8"/>
       <c r="C50" s="14" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
-      <c r="F50" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="G50" s="33">
-        <v>0</v>
-      </c>
-      <c r="H50" s="39" t="s">
+      <c r="F50" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" s="23">
+        <v>0</v>
+      </c>
+      <c r="H50" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B51" s="8"/>
-      <c r="C51" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="53" t="s">
+      <c r="C51" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G51" s="33">
-        <v>0</v>
-      </c>
-      <c r="H51" s="39" t="s">
+      <c r="G51" s="23">
+        <v>0</v>
+      </c>
+      <c r="H51" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
-      <c r="C52" s="35" t="s">
-        <v>44</v>
+      <c r="C52" s="25" t="s">
+        <v>27</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
-      <c r="F52" s="53" t="s">
+      <c r="F52" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G52" s="33">
-        <v>0</v>
-      </c>
-      <c r="H52" s="39" t="s">
+      <c r="G52" s="23">
+        <v>0</v>
+      </c>
+      <c r="H52" s="29" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B53" s="8"/>
-      <c r="C53" s="35"/>
+      <c r="C53" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="39"/>
+      <c r="F53" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" s="23">
+        <v>0</v>
+      </c>
+      <c r="H53" s="29" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="54" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B54" s="8"/>
-      <c r="C54" s="38" t="s">
-        <v>45</v>
-      </c>
+      <c r="C54" s="25"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
-      <c r="F54" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="G54" s="33">
-        <v>0</v>
-      </c>
+      <c r="F54" s="40"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="29"/>
     </row>
     <row r="55" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B55" s="8"/>
-      <c r="C55" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" s="12">
-        <v>43964</v>
-      </c>
-      <c r="E55" s="12">
-        <v>43965</v>
-      </c>
-      <c r="F55" s="53" t="s">
+      <c r="C55" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G55" s="33">
+      <c r="G55" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B56" s="8"/>
-      <c r="C56" s="22" t="s">
-        <v>33</v>
+      <c r="C56" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="D56" s="12">
         <v>43964</v>
       </c>
       <c r="E56" s="12">
+        <v>43965</v>
+      </c>
+      <c r="F56" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B57" s="8"/>
+      <c r="C57" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="12">
+        <v>43964</v>
+      </c>
+      <c r="E57" s="12">
         <v>43972</v>
       </c>
-      <c r="F56" s="53" t="s">
+      <c r="F57" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="G56" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B57" s="40"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="49"/>
+      <c r="G57" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B58" s="40"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="49"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="36"/>
     </row>
     <row r="59" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B59" s="50"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="37" t="s">
+      <c r="B59" s="30"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="36"/>
+    </row>
+    <row r="60" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B60" s="37"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G59" s="7">
-        <f>AVERAGE(G5:G56)</f>
+      <c r="G60" s="7">
+        <f>AVERAGE(G5:G57)</f>
         <v>0.39342105263157895</v>
       </c>
     </row>
-    <row r="60" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B60" s="40"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="49"/>
-    </row>
     <row r="61" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B61" s="50"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="49"/>
-    </row>
-    <row r="62" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B62" s="40"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="36"/>
+    </row>
+    <row r="62" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B62" s="37"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="36"/>
     </row>
     <row r="63" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B63" s="40"/>
+      <c r="B63" s="30"/>
     </row>
     <row r="64" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B64" s="40"/>
+      <c r="B64" s="30"/>
     </row>
     <row r="65" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B65" s="40"/>
-    </row>
-    <row r="66" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B65" s="30"/>
+    </row>
+    <row r="66" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B66" s="30"/>
+    </row>
     <row r="67" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C29:G29"/>

--- a/P3GA2/Cronograma Practica PROGRA.xlsx
+++ b/P3GA2/Cronograma Practica PROGRA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorgi\Documents\Practica\P3GA2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorgi\Documents\ProyectoUMG\P3GA2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>ACTIVIDAD</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t xml:space="preserve">Login </t>
+  </si>
+  <si>
+    <t>Coordinador(Jorge)</t>
   </si>
 </sst>
 </file>
@@ -318,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -425,9 +428,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -490,7 +490,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -525,7 +525,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -714,7 +714,7 @@
   <dimension ref="B1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -792,7 +792,9 @@
       <c r="F6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
@@ -842,7 +844,9 @@
       <c r="F11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="12"/>
+      <c r="G11" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="30"/>
@@ -858,7 +862,9 @@
       <c r="F12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="12"/>
+      <c r="G12" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="30"/>
@@ -910,7 +916,9 @@
       <c r="F17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="12"/>
+      <c r="G17" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
@@ -926,7 +934,9 @@
       <c r="F18" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="12"/>
+      <c r="G18" s="12">
+        <v>1</v>
+      </c>
       <c r="H18" s="1" t="s">
         <v>37</v>
       </c>
@@ -945,7 +955,9 @@
       <c r="F19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="12"/>
+      <c r="G19" s="12">
+        <v>1</v>
+      </c>
       <c r="H19" s="1" t="s">
         <v>31</v>
       </c>
@@ -964,7 +976,9 @@
       <c r="F20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="12"/>
+      <c r="G20" s="12">
+        <v>1</v>
+      </c>
       <c r="H20" s="1" t="s">
         <v>31</v>
       </c>
@@ -983,7 +997,9 @@
       <c r="F21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="15"/>
+      <c r="G21" s="15">
+        <v>1</v>
+      </c>
       <c r="H21" s="1" t="s">
         <v>31</v>
       </c>
@@ -1002,7 +1018,9 @@
       <c r="F22" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="12"/>
+      <c r="G22" s="12">
+        <v>1</v>
+      </c>
       <c r="H22" s="1" t="s">
         <v>31</v>
       </c>
@@ -1021,7 +1039,9 @@
       <c r="F23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="12"/>
+      <c r="G23" s="12">
+        <v>1</v>
+      </c>
       <c r="H23" s="1" t="s">
         <v>31</v>
       </c>
@@ -1040,7 +1060,9 @@
       <c r="F24" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="12"/>
+      <c r="G24" s="12">
+        <v>1</v>
+      </c>
       <c r="H24" s="1" t="s">
         <v>31</v>
       </c>
@@ -1059,7 +1081,9 @@
       <c r="F25" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="12"/>
+      <c r="G25" s="12">
+        <v>1</v>
+      </c>
       <c r="H25" s="1" t="s">
         <v>31</v>
       </c>
@@ -1078,7 +1102,9 @@
       <c r="F26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="12"/>
+      <c r="G26" s="12">
+        <v>1</v>
+      </c>
       <c r="H26" s="1" t="s">
         <v>31</v>
       </c>
@@ -1097,14 +1123,16 @@
       <c r="F27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="12"/>
+      <c r="G27" s="12">
+        <v>1</v>
+      </c>
       <c r="H27" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="18" x14ac:dyDescent="0.25">
       <c r="B28" s="33"/>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="19" t="s">
         <v>34</v>
       </c>
       <c r="D28" s="10">
@@ -1116,14 +1144,16 @@
       <c r="F28" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="12"/>
+      <c r="G28" s="12">
+        <v>0.95</v>
+      </c>
       <c r="H28" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="18" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
-      <c r="C29" s="21"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="11"/>
@@ -1152,10 +1182,14 @@
         <v>43964</v>
       </c>
       <c r="E31" s="14">
-        <v>43965</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
+        <v>43972</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="2:8" ht="18" x14ac:dyDescent="0.25">
       <c r="B32" s="9"/>
@@ -1213,9 +1247,9 @@
       <c r="F41" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="7" t="e">
+      <c r="G41" s="7">
         <f>AVERAGE(G5:G36)</f>
-        <v>#DIV/0!</v>
+        <v>0.93437499999999996</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/P3GA2/Cronograma Practica PROGRA.xlsx
+++ b/P3GA2/Cronograma Practica PROGRA.xlsx
@@ -713,8 +713,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1145,7 +1145,7 @@
         <v>30</v>
       </c>
       <c r="G28" s="12">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>35</v>
@@ -1182,7 +1182,7 @@
         <v>43964</v>
       </c>
       <c r="E31" s="14">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>38</v>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="G41" s="7">
         <f>AVERAGE(G5:G36)</f>
-        <v>0.93437499999999996</v>
+        <v>0.921875</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/P3GA2/Cronograma Practica PROGRA.xlsx
+++ b/P3GA2/Cronograma Practica PROGRA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA ACTIVIDADES" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="54">
   <si>
     <t>ACTIVIDAD</t>
   </si>
@@ -141,13 +141,58 @@
   </si>
   <si>
     <t>Coordinador(Jorge)</t>
+  </si>
+  <si>
+    <t>Mejorar diseño de login.</t>
+  </si>
+  <si>
+    <t>Fase 2</t>
+  </si>
+  <si>
+    <t>Mostrar registros Alumnos</t>
+  </si>
+  <si>
+    <t>Cajas de texto centradas.</t>
+  </si>
+  <si>
+    <t>Agregar combobox</t>
+  </si>
+  <si>
+    <t>AsignacionCursoMaestro</t>
+  </si>
+  <si>
+    <t>Revision de validaciones generales</t>
+  </si>
+  <si>
+    <t>revisar validaciones cambiar labels por joptionpane</t>
+  </si>
+  <si>
+    <t>Consulta Notas</t>
+  </si>
+  <si>
+    <t>Notas por parciales</t>
+  </si>
+  <si>
+    <t>Mejoras visuales y validaciones</t>
+  </si>
+  <si>
+    <t>Mostrar datos guardados</t>
+  </si>
+  <si>
+    <t>Revision Mantenimientos</t>
+  </si>
+  <si>
+    <t>Fechas</t>
+  </si>
+  <si>
+    <t>Encargado:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,8 +255,49 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,8 +316,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -317,11 +415,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -342,9 +451,6 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -357,21 +463,11 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -399,6 +495,82 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -490,7 +662,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -525,7 +697,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -711,10 +883,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B1:H42"/>
+  <dimension ref="B1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -729,24 +901,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
     </row>
     <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="34" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
@@ -770,7 +942,7 @@
     </row>
     <row r="5" spans="2:7" ht="20.25" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="4"/>
@@ -779,162 +951,157 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>43963</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>43964</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29"/>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="52"/>
+      <c r="C10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="30"/>
-      <c r="C11" s="19" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>43902</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <v>43903</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="30"/>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="53"/>
+      <c r="C12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>43902</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="12">
         <v>43903</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="30"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
+    <row r="13" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="53"/>
     </row>
     <row r="14" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="30"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="30"/>
-      <c r="C15" s="22" t="s">
+      <c r="B15" s="53"/>
+      <c r="C15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="53"/>
+      <c r="C16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="15"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="54"/>
+      <c r="C17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>43963</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>43964</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>43963</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>43964</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <v>1</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -942,20 +1109,20 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B19" s="32"/>
-      <c r="C19" s="19" t="s">
+      <c r="B19" s="55"/>
+      <c r="C19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>43963</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>43964</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="11">
         <v>1</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -963,20 +1130,20 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B20" s="37"/>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="60"/>
+      <c r="C20" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>43963</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>43964</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="11">
         <v>1</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -984,20 +1151,20 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B21" s="33"/>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="56"/>
+      <c r="C21" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>43963</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <v>43964</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="11">
         <v>1</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -1005,20 +1172,20 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>43963</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>43964</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="11">
         <v>1</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -1026,20 +1193,20 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
-      <c r="C23" s="19" t="s">
+      <c r="B23" s="52"/>
+      <c r="C23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>43963</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="9">
         <v>43964</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="11">
         <v>1</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -1047,20 +1214,20 @@
       </c>
     </row>
     <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="30"/>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="53"/>
+      <c r="C24" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>43963</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="9">
         <v>43964</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="11">
         <v>1</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -1068,20 +1235,20 @@
       </c>
     </row>
     <row r="25" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="31"/>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="54"/>
+      <c r="C25" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>43963</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <v>43964</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="11">
         <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -1089,20 +1256,20 @@
       </c>
     </row>
     <row r="26" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="19" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>43963</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="9">
         <v>43964</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="11">
         <v>1</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -1110,20 +1277,20 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B27" s="32"/>
-      <c r="C27" s="19" t="s">
+      <c r="B27" s="55"/>
+      <c r="C27" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>43963</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="9">
         <v>43964</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="11">
         <v>1</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -1131,130 +1298,513 @@
       </c>
     </row>
     <row r="28" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B28" s="33"/>
-      <c r="C28" s="19" t="s">
+      <c r="B28" s="56"/>
+      <c r="C28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>43964</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="9">
         <v>43964</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="12">
-        <v>0.75</v>
+      <c r="G28" s="11">
+        <v>0.95</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="16"/>
-    </row>
-    <row r="30" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-      <c r="C30" s="26" t="s">
+    <row r="29" spans="2:8" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="B29" s="8"/>
+      <c r="C29" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="48"/>
+    </row>
+    <row r="30" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B30" s="8"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="50"/>
+      <c r="F30" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="41"/>
+    </row>
+    <row r="31" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B31" s="8"/>
+      <c r="C31" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="44">
+        <v>1</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B32" s="8"/>
+      <c r="C32" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="23">
+        <v>0</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B33" s="8"/>
+      <c r="C33" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B34" s="8"/>
+      <c r="C34" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B35" s="8"/>
+      <c r="C35" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B36" s="8"/>
+      <c r="C36" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B37" s="8"/>
+      <c r="C37" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="23">
+        <v>0</v>
+      </c>
+      <c r="H37" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B38" s="8"/>
+      <c r="C38" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="23">
+        <v>0</v>
+      </c>
+      <c r="H38" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B39" s="8"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="23"/>
+    </row>
+    <row r="40" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B40" s="8"/>
+      <c r="C40" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="29"/>
+    </row>
+    <row r="41" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B41" s="8"/>
+      <c r="C41" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="23">
+        <v>0</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B42" s="8"/>
+      <c r="C42" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" s="23">
+        <v>0</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B43" s="8"/>
+      <c r="C43" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="23">
+        <v>0</v>
+      </c>
+      <c r="H43" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B44" s="8"/>
+      <c r="C44" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="23">
+        <v>1</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B45" s="8"/>
+      <c r="C45" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B46" s="8"/>
+      <c r="C46" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="23">
+        <v>0</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B47" s="8"/>
+      <c r="C47" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="23">
+        <v>0</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B48" s="8"/>
+      <c r="C48" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="23">
+        <v>0</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B49" s="8"/>
+      <c r="C49" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="23">
+        <v>0</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B50" s="8"/>
+      <c r="C50" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="23">
+        <v>0</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B51" s="8"/>
+      <c r="C51" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B52" s="8"/>
+      <c r="C52" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="23">
+        <v>0.7</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B53" s="8"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="29"/>
+    </row>
+    <row r="54" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B54" s="8"/>
+      <c r="C54" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B55" s="8"/>
+      <c r="C55" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D55" s="12">
         <v>43964</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E55" s="12">
         <v>43965</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-    </row>
-    <row r="31" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-      <c r="C31" s="27" t="s">
+      <c r="F55" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B56" s="8"/>
+      <c r="C56" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D56" s="12">
         <v>43964</v>
       </c>
-      <c r="E31" s="14">
-        <v>43973</v>
-      </c>
-      <c r="F31" s="11" t="s">
+      <c r="E56" s="12">
+        <v>43972</v>
+      </c>
+      <c r="F56" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G56" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B32" s="9"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-    </row>
-    <row r="33" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
-    </row>
-    <row r="34" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B34" s="17"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="12"/>
-    </row>
-    <row r="37" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B37" s="9"/>
-    </row>
-    <row r="38" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B38" s="9"/>
-    </row>
-    <row r="39" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B39" s="9"/>
-    </row>
-    <row r="40" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B40" s="9"/>
-    </row>
-    <row r="41" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F41" s="8" t="s">
+    <row r="57" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B57" s="30"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="36"/>
+    </row>
+    <row r="58" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B58" s="30"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="36"/>
+    </row>
+    <row r="59" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B59" s="37"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="7">
-        <f>AVERAGE(G5:G36)</f>
-        <v>0.921875</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="G59" s="7">
+        <f>AVERAGE(G5:G56)</f>
+        <v>0.49605263157894741</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B60" s="30"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="36"/>
+    </row>
+    <row r="61" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B61" s="37"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="36"/>
+    </row>
+    <row r="62" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B62" s="30"/>
+    </row>
+    <row r="63" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B63" s="30"/>
+    </row>
+    <row r="64" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B64" s="30"/>
+    </row>
+    <row r="65" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B65" s="30"/>
+    </row>
+    <row r="66" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="D30:E30"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B27:B28"/>

--- a/P3GA2/Cronograma Practica PROGRA.xlsx
+++ b/P3GA2/Cronograma Practica PROGRA.xlsx
@@ -662,7 +662,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -697,7 +697,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -885,8 +885,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1385,7 +1385,7 @@
         <v>28</v>
       </c>
       <c r="G33" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
@@ -1558,7 +1558,7 @@
         <v>28</v>
       </c>
       <c r="G45" s="23">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H45" s="29" t="s">
         <v>46</v>
@@ -1575,7 +1575,7 @@
         <v>28</v>
       </c>
       <c r="G46" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="29" t="s">
         <v>46</v>
@@ -1677,7 +1677,7 @@
         <v>30</v>
       </c>
       <c r="G52" s="23">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H52" s="29" t="s">
         <v>46</v>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="G59" s="7">
         <f>AVERAGE(G5:G56)</f>
-        <v>0.49605263157894741</v>
+        <v>0.5407894736842106</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="18" x14ac:dyDescent="0.25">

--- a/P3GA2/Cronograma Practica PROGRA.xlsx
+++ b/P3GA2/Cronograma Practica PROGRA.xlsx
@@ -885,8 +885,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1437,7 +1437,7 @@
         <v>29</v>
       </c>
       <c r="G37" s="23">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H37" s="31" t="s">
         <v>50</v>
@@ -1490,7 +1490,7 @@
         <v>16</v>
       </c>
       <c r="G41" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" s="29" t="s">
         <v>46</v>
@@ -1507,7 +1507,7 @@
         <v>16</v>
       </c>
       <c r="G42" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="29" t="s">
         <v>46</v>
@@ -1524,7 +1524,7 @@
         <v>16</v>
       </c>
       <c r="G43" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="29" t="s">
         <v>46</v>
@@ -1592,7 +1592,7 @@
         <v>29</v>
       </c>
       <c r="G47" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="29" t="s">
         <v>46</v>
@@ -1609,7 +1609,7 @@
         <v>29</v>
       </c>
       <c r="G48" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" s="29" t="s">
         <v>46</v>
@@ -1626,7 +1626,7 @@
         <v>29</v>
       </c>
       <c r="G49" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" s="29" t="s">
         <v>46</v>
@@ -1721,7 +1721,7 @@
         <v>7</v>
       </c>
       <c r="G55" s="23">
-        <v>0</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="G59" s="7">
         <f>AVERAGE(G5:G56)</f>
-        <v>0.5407894736842106</v>
+        <v>0.73657894736842111</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="18" x14ac:dyDescent="0.25">

--- a/P3GA2/Cronograma Practica PROGRA.xlsx
+++ b/P3GA2/Cronograma Practica PROGRA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="54">
   <si>
     <t>ACTIVIDAD</t>
   </si>
@@ -885,8 +885,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1409,9 +1409,11 @@
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
-      <c r="F35" s="40"/>
+      <c r="F35" s="40" t="s">
+        <v>7</v>
+      </c>
       <c r="G35" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
@@ -1422,9 +1424,7 @@
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="40"/>
-      <c r="G36" s="23">
-        <v>0</v>
-      </c>
+      <c r="G36" s="23"/>
     </row>
     <row r="37" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B37" s="8"/>
@@ -1437,7 +1437,7 @@
         <v>29</v>
       </c>
       <c r="G37" s="23">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H37" s="31" t="s">
         <v>50</v>
@@ -1454,7 +1454,7 @@
         <v>16</v>
       </c>
       <c r="G38" s="23">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H38" s="31" t="s">
         <v>50</v>
@@ -1643,7 +1643,7 @@
         <v>30</v>
       </c>
       <c r="G50" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="29" t="s">
         <v>46</v>
@@ -1660,7 +1660,7 @@
         <v>30</v>
       </c>
       <c r="G51" s="23">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H51" s="29" t="s">
         <v>46</v>
@@ -1703,7 +1703,7 @@
         <v>7</v>
       </c>
       <c r="G54" s="23">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="G59" s="7">
         <f>AVERAGE(G5:G56)</f>
-        <v>0.73657894736842111</v>
+        <v>0.83486486486486489</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="18" x14ac:dyDescent="0.25">

--- a/P3GA2/Cronograma Practica PROGRA.xlsx
+++ b/P3GA2/Cronograma Practica PROGRA.xlsx
@@ -297,7 +297,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +328,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -430,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -499,9 +505,6 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -601,6 +604,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -885,8 +900,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -901,24 +916,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B3" s="58"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="57" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58"/>
     </row>
     <row r="4" spans="2:7" ht="15" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
@@ -993,7 +1008,7 @@
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="52"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="20" t="s">
         <v>11</v>
       </c>
@@ -1003,7 +1018,7 @@
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="53"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="14" t="s">
         <v>12</v>
       </c>
@@ -1021,7 +1036,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="53"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="14" t="s">
         <v>15</v>
       </c>
@@ -1039,10 +1054,10 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="53"/>
+      <c r="B13" s="52"/>
     </row>
     <row r="14" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="53"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="15"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -1050,7 +1065,7 @@
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="53"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="17" t="s">
         <v>8</v>
       </c>
@@ -1060,7 +1075,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="53"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="14" t="s">
         <v>27</v>
       </c>
@@ -1070,7 +1085,7 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="54"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="14" t="s">
         <v>17</v>
       </c>
@@ -1109,7 +1124,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B19" s="55"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="14" t="s">
         <v>18</v>
       </c>
@@ -1130,7 +1145,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B20" s="60"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="14" t="s">
         <v>19</v>
       </c>
@@ -1151,7 +1166,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B21" s="56"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="14" t="s">
         <v>20</v>
       </c>
@@ -1193,7 +1208,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="52"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="14" t="s">
         <v>22</v>
       </c>
@@ -1214,7 +1229,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="53"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="14" t="s">
         <v>23</v>
       </c>
@@ -1235,7 +1250,7 @@
       </c>
     </row>
     <row r="25" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="54"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="14" t="s">
         <v>24</v>
       </c>
@@ -1277,7 +1292,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B27" s="55"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="14" t="s">
         <v>26</v>
       </c>
@@ -1298,7 +1313,7 @@
       </c>
     </row>
     <row r="28" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B28" s="56"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="14" t="s">
         <v>34</v>
       </c>
@@ -1320,96 +1335,96 @@
     </row>
     <row r="29" spans="2:8" ht="33.75" x14ac:dyDescent="0.5">
       <c r="B29" s="8"/>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="48"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="47"/>
     </row>
     <row r="30" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B30" s="8"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="49" t="s">
+      <c r="C30" s="40"/>
+      <c r="D30" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="28" t="s">
+      <c r="E30" s="49"/>
+      <c r="F30" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="41"/>
+      <c r="G30" s="40"/>
     </row>
     <row r="31" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B31" s="8"/>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="43" t="s">
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="44">
-        <v>1</v>
-      </c>
-      <c r="H31" s="29" t="s">
+      <c r="G31" s="43">
+        <v>1</v>
+      </c>
+      <c r="H31" s="28" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B32" s="8"/>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="24" t="s">
         <v>41</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="40" t="s">
+      <c r="F32" s="39" t="s">
         <v>30</v>
       </c>
       <c r="G32" s="23">
         <v>0</v>
       </c>
-      <c r="H32" s="29" t="s">
+      <c r="H32" s="28" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B33" s="8"/>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="40" t="s">
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G33" s="63">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B34" s="8"/>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="40" t="s">
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="G34" s="23">
+      <c r="G34" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B35" s="8"/>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="26" t="s">
         <v>42</v>
       </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
-      <c r="F35" s="40" t="s">
+      <c r="F35" s="39" t="s">
         <v>7</v>
       </c>
       <c r="G35" s="23">
@@ -1418,66 +1433,66 @@
     </row>
     <row r="36" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B36" s="8"/>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="38" t="s">
         <v>43</v>
       </c>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
-      <c r="F36" s="40"/>
+      <c r="F36" s="39"/>
       <c r="G36" s="23"/>
     </row>
     <row r="37" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B37" s="8"/>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
-      <c r="F37" s="40" t="s">
+      <c r="F37" s="39" t="s">
         <v>29</v>
       </c>
       <c r="G37" s="23">
         <v>1</v>
       </c>
-      <c r="H37" s="31" t="s">
+      <c r="H37" s="30" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B38" s="8"/>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="24" t="s">
         <v>44</v>
       </c>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
-      <c r="F38" s="40" t="s">
+      <c r="F38" s="39" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="H38" s="31" t="s">
+        <v>0.7</v>
+      </c>
+      <c r="H38" s="30" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B39" s="8"/>
-      <c r="C39" s="25"/>
+      <c r="C39" s="24"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
-      <c r="F39" s="40"/>
+      <c r="F39" s="39"/>
       <c r="G39" s="23"/>
     </row>
     <row r="40" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="44" t="s">
         <v>51</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="40"/>
+      <c r="F40" s="39"/>
       <c r="G40" s="23"/>
-      <c r="H40" s="29"/>
+      <c r="H40" s="28"/>
     </row>
     <row r="41" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B41" s="8"/>
@@ -1486,13 +1501,13 @@
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="40" t="s">
+      <c r="F41" s="39" t="s">
         <v>16</v>
       </c>
       <c r="G41" s="23">
         <v>1</v>
       </c>
-      <c r="H41" s="29" t="s">
+      <c r="H41" s="28" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1503,13 +1518,13 @@
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="40" t="s">
+      <c r="F42" s="39" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="23">
         <v>1</v>
       </c>
-      <c r="H42" s="29" t="s">
+      <c r="H42" s="28" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1520,13 +1535,13 @@
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="40" t="s">
+      <c r="F43" s="39" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="23">
         <v>1</v>
       </c>
-      <c r="H43" s="29" t="s">
+      <c r="H43" s="28" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1537,13 +1552,13 @@
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="40" t="s">
+      <c r="F44" s="39" t="s">
         <v>28</v>
       </c>
       <c r="G44" s="23">
         <v>1</v>
       </c>
-      <c r="H44" s="29" t="s">
+      <c r="H44" s="28" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1554,13 +1569,13 @@
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
-      <c r="F45" s="40" t="s">
+      <c r="F45" s="39" t="s">
         <v>28</v>
       </c>
       <c r="G45" s="23">
         <v>1</v>
       </c>
-      <c r="H45" s="29" t="s">
+      <c r="H45" s="28" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1571,13 +1586,13 @@
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
-      <c r="F46" s="40" t="s">
+      <c r="F46" s="39" t="s">
         <v>28</v>
       </c>
       <c r="G46" s="23">
         <v>1</v>
       </c>
-      <c r="H46" s="29" t="s">
+      <c r="H46" s="28" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1588,13 +1603,13 @@
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
-      <c r="F47" s="40" t="s">
+      <c r="F47" s="39" t="s">
         <v>29</v>
       </c>
       <c r="G47" s="23">
         <v>1</v>
       </c>
-      <c r="H47" s="29" t="s">
+      <c r="H47" s="28" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1605,13 +1620,13 @@
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
-      <c r="F48" s="40" t="s">
+      <c r="F48" s="39" t="s">
         <v>29</v>
       </c>
       <c r="G48" s="23">
         <v>1</v>
       </c>
-      <c r="H48" s="29" t="s">
+      <c r="H48" s="28" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1622,13 +1637,13 @@
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
-      <c r="F49" s="40" t="s">
+      <c r="F49" s="39" t="s">
         <v>29</v>
       </c>
       <c r="G49" s="23">
         <v>1</v>
       </c>
-      <c r="H49" s="29" t="s">
+      <c r="H49" s="28" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1639,71 +1654,71 @@
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
-      <c r="F50" s="40" t="s">
+      <c r="F50" s="39" t="s">
         <v>30</v>
       </c>
       <c r="G50" s="23">
         <v>1</v>
       </c>
-      <c r="H50" s="29" t="s">
+      <c r="H50" s="28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B51" s="8"/>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
-      <c r="F51" s="40" t="s">
+      <c r="F51" s="39" t="s">
         <v>30</v>
       </c>
       <c r="G51" s="23">
-        <v>0</v>
-      </c>
-      <c r="H51" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="24" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
-      <c r="F52" s="40" t="s">
+      <c r="F52" s="39" t="s">
         <v>30</v>
       </c>
       <c r="G52" s="23">
-        <v>0</v>
-      </c>
-      <c r="H52" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" s="28" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B53" s="8"/>
-      <c r="C53" s="25"/>
+      <c r="C53" s="24"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
-      <c r="F53" s="40"/>
+      <c r="F53" s="39"/>
       <c r="G53" s="23"/>
-      <c r="H53" s="29"/>
+      <c r="H53" s="28"/>
     </row>
     <row r="54" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B54" s="8"/>
-      <c r="C54" s="28" t="s">
+      <c r="C54" s="27" t="s">
         <v>45</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
-      <c r="F54" s="40" t="s">
+      <c r="F54" s="39" t="s">
         <v>7</v>
       </c>
       <c r="G54" s="23">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
@@ -1715,13 +1730,13 @@
         <v>43964</v>
       </c>
       <c r="E55" s="12">
-        <v>43965</v>
-      </c>
-      <c r="F55" s="40" t="s">
+        <v>43973</v>
+      </c>
+      <c r="F55" s="39" t="s">
         <v>7</v>
       </c>
       <c r="G55" s="23">
-        <v>0.64</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="20.25" x14ac:dyDescent="0.3">
@@ -1733,71 +1748,71 @@
         <v>43964</v>
       </c>
       <c r="E56" s="12">
-        <v>43972</v>
-      </c>
-      <c r="F56" s="40" t="s">
+        <v>43973</v>
+      </c>
+      <c r="F56" s="39" t="s">
         <v>38</v>
       </c>
       <c r="G56" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B57" s="30"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="36"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="35"/>
     </row>
     <row r="58" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B58" s="30"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="36"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="35"/>
     </row>
     <row r="59" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B59" s="37"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="27" t="s">
+      <c r="B59" s="36"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="26" t="s">
         <v>9</v>
       </c>
       <c r="G59" s="7">
         <f>AVERAGE(G5:G56)</f>
-        <v>0.83486486486486489</v>
+        <v>0.93513513513513513</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B60" s="30"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="36"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="35"/>
     </row>
     <row r="61" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B61" s="37"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="36"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="35"/>
     </row>
     <row r="62" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B62" s="30"/>
+      <c r="B62" s="29"/>
     </row>
     <row r="63" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B63" s="30"/>
+      <c r="B63" s="29"/>
     </row>
     <row r="64" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B64" s="30"/>
+      <c r="B64" s="29"/>
     </row>
     <row r="65" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B65" s="30"/>
+      <c r="B65" s="29"/>
     </row>
     <row r="66" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="2:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
